--- a/medicine/Enfance/Casimir_(personnage)/Casimir_(personnage).xlsx
+++ b/medicine/Enfance/Casimir_(personnage)/Casimir_(personnage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Casimir est un personnage de fiction français créé par Yves Brunier et Christophe Izard dans les années 1970.
@@ -513,16 +525,18 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1973, l'ORTF souhaite adapter la série télévisée éducative Sesame Street, qui alterne des scènes avec marionnettes en mousse sculptée et des scènes avec personnages réels[1].
-Le producteur Christophe Izard, qui a découvert la télévision pour enfants en travaillant à New York, fait appel au marionnettiste Yves Brunier pour créer une marionnette géante. Ce dernier propose plusieurs animaux et c'est finalement Plocus, un dinosaure vert, qui est choisi pour le pilote de l'émission L'Île aux enfants[1].
-Le personnage est finalement rebaptisé Casimir (prénom choisi par hasard sur le calendrier par Christophe Izard) et relooké en orange pour éviter d'être confondu avec le décor végétal vert[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1973, l'ORTF souhaite adapter la série télévisée éducative Sesame Street, qui alterne des scènes avec marionnettes en mousse sculptée et des scènes avec personnages réels.
+Le producteur Christophe Izard, qui a découvert la télévision pour enfants en travaillant à New York, fait appel au marionnettiste Yves Brunier pour créer une marionnette géante. Ce dernier propose plusieurs animaux et c'est finalement Plocus, un dinosaure vert, qui est choisi pour le pilote de l'émission L'Île aux enfants.
+Le personnage est finalement rebaptisé Casimir (prénom choisi par hasard sur le calendrier par Christophe Izard) et relooké en orange pour éviter d'être confondu avec le décor végétal vert.
 L'Île aux enfants est diffusée durant quelques mois à partir du 16 septembre 1974 sur FR3 avant d'être diffusée pendant sept saisons sur TF1 jusqu'au 30 juin 1982. Le générique, composé par Roger Pouly avec des paroles de Christophe Izard, est interprété par Anne Germain.
 Le personnage a aussi fait plusieurs apparitions régulières dans le Journal de Casimir ainsi que dans des livres anciens chez trois éditeurs différents, puis enfin dans des livres récents à but avant tout informatif et à titre d'« hommage ».
 En 1999, ses nouvelles apparitions télévisées trois fois par jour sur Canal J répondent aux attentes du public, de même qu'actuellement ses interventions ponctuelles sur les plateaux télévisés. C'est alors Régis Fassier qui l'anime.
 En 2009, le personnage présente, avec Christophe Renaud, une quarantaine de numéros de Melody 80 sur Melody. La même année, il apparaît dans le clip de la chanson C'est dit de Calogero.
-En juillet 2015, est annoncée une adaptation au cinéma du personnage, par les producteurs de Babysitting[2].
+En juillet 2015, est annoncée une adaptation au cinéma du personnage, par les producteurs de Babysitting.
 </t>
         </is>
       </c>
@@ -553,47 +567,159 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Présentation
-Casimir est un dinosaure orange, à pois jaunes et rouges, de la famille des Casimirus. Il est souvent accompagné d'Hippolyte, son cousin le dinosaure vert, et de ses amis François, Julie, Léonard le renard, Monsieur Du Snob (aristocratiquement prénommé Fulbert Anselme), Émile Campagne le facteur, la botaniste Edmée Futaie et l'agent artistique cupide Albert Traveling.
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Casimir est un dinosaure orange, à pois jaunes et rouges, de la famille des Casimirus. Il est souvent accompagné d'Hippolyte, son cousin le dinosaure vert, et de ses amis François, Julie, Léonard le renard, Monsieur Du Snob (aristocratiquement prénommé Fulbert Anselme), Émile Campagne le facteur, la botaniste Edmée Futaie et l'agent artistique cupide Albert Traveling.
 Casimir a su toucher toutes les tranches d'âge, bien que son inventeur l'ait destiné principalement aux enfants. En effet, son charme et sa gentillesse en ont fait un « ami idéal » pour tous. Même les animaux apprécient Casimir, qui connaît par ailleurs le langage de ces derniers.
-Espèce
-Le Casimirus est une espèce imaginaire de dinosaures bipèdes, créée par Christophe Izard et Yves Brunier, les créateurs de Casimir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Casimir_(personnage)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Casimir_(personnage)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnage</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Casimirus est une espèce imaginaire de dinosaures bipèdes, créée par Christophe Izard et Yves Brunier, les créateurs de Casimir.
 Un Casimirus possède quatre doigts à chaque main et trois à chaque pied et se nourrit exclusivement de gloubi-boulga. On trouve des Casimirus de couleurs variables (Casimir est orange, son cousin Hippolyte est vert), et le cousin Albéric, apparu une seule fois, est vert et a des oreilles et des poils.
-Habitat
-Casimir habite dans une maison qu'il s'est construite au départ en voulant protéger avec des clôtures des plants d'arbres qu'il aurait plantés. Une fois l'arbre devenu grand, Casimir a trouvé le logis très agréable à son goût.
-Signes particuliers
-Type : Reptile humanoïde bipède.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Casimir_(personnage)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Casimir_(personnage)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnage</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Casimir habite dans une maison qu'il s'est construite au départ en voulant protéger avec des clôtures des plants d'arbres qu'il aurait plantés. Une fois l'arbre devenu grand, Casimir a trouvé le logis très agréable à son goût.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Casimir_(personnage)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Casimir_(personnage)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Signes particuliers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Type : Reptile humanoïde bipède.
 Peau : jaune orangée à pois jaunes et rouges ; possède une crête rouge.
 Caractère : drôle, généreux, gourmand, naïf.
 Alimentation : le gloubi-boulga exclusivement.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Casimir_(personnage)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Casimir_(personnage)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aux éditions GP - Jean Chapelle Editeur
@@ -645,64 +771,68 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Casimir_(personnage)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Casimir_(personnage)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'Île Aux Enfants - Quatre aventures de Casimir (1977)[3], 33 tours.
-L'Île Aux Enfants Remix 93 (1993)[4], Single.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'Île Aux Enfants - Quatre aventures de Casimir (1977), 33 tours.
+L'Île Aux Enfants Remix 93 (1993), Single.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Casimir_(personnage)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Casimir_(personnage)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Engagement associatif</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Casimir est le parrain de l'association fédérative La Voix de l'Enfant (dont l'actrice Carole Bouquet est la porte-parole)[5] et de l'association grenobloise Capokaze depuis sa rencontre avec Alexandre Pilon[réf. nécessaire].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Casimir est le parrain de l'association fédérative La Voix de l'Enfant (dont l'actrice Carole Bouquet est la porte-parole) et de l'association grenobloise Capokaze depuis sa rencontre avec Alexandre Pilon[réf. nécessaire].
 </t>
         </is>
       </c>
